--- a/forwardprimer-v3_18.xlsx
+++ b/forwardprimer-v3_18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_18" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F1633-CGTTCTGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTCTGGAATCGTCGGCAGCGTC</t>
+    <t>F1633-ATCCAGAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCAGAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F1634-TGACCATCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACCATCTATCGTCGGCAGCGTC</t>
+    <t>F1634-GAAGTCGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTCGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F1635-AGAGACTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACTGTATCGTCGGCAGCGTC</t>
+    <t>F1635-GTTGGAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGGAGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F1636-ATGAACTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAACTCAGTCGTCGGCAGCGTC</t>
+    <t>F1636-CACATGTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACATGTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F1637-TAGAGTCGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGTCGAATCGTCGGCAGCGTC</t>
+    <t>F1637-TGCTGTTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTGTTGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F1638-AGTAGAACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGAACGTTCGTCGGCAGCGTC</t>
+    <t>F1638-AACGTGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTGTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F1639-CTGTACCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTACCTAGTCGTCGGCAGCGTC</t>
+    <t>F1639-GTCAACCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAACCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F1640-GGTACTCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTACTCTGTTCGTCGGCAGCGTC</t>
+    <t>F1640-CACTACTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTACTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F1641-ATGGATGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGATGACTTCGTCGGCAGCGTC</t>
+    <t>F1641-TGTTCTGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCTGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F1642-ACCTAGTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTAGTTGCTCGTCGGCAGCGTC</t>
+    <t>F1642-GAGTACCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTACCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F1643-ATCAGAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAGAGGAATCGTCGGCAGCGTC</t>
+    <t>F1643-GGACCTTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGACCTTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F1644-CATCATCAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCATCAGGTCGTCGGCAGCGTC</t>
+    <t>F1644-TGCAAGTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAAGTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F1645-TTCACGTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCACGTTGGTCGTCGGCAGCGTC</t>
+    <t>F1645-TGATGCAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATGCAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F1646-AAGAAGCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAAGCAACTCGTCGGCAGCGTC</t>
+    <t>F1646-GCAGATGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAGATGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F1647-CAAGTCCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTCCATCTCGTCGGCAGCGTC</t>
+    <t>F1647-ATCCTGTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTGTCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F1648-TTCCTGATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTGATGGTCGTCGGCAGCGTC</t>
+    <t>F1648-TAGTCAGCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCAGCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F1649-TGAGTCAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTCAGTGTCGTCGGCAGCGTC</t>
+    <t>F1649-ACAGTAGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTAGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F1650-CTCACCTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCACCTGTATCGTCGGCAGCGTC</t>
+    <t>F1650-AACCTCACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTCACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F1651-CTCTAGTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTAGTTGGTCGTCGGCAGCGTC</t>
+    <t>F1651-CAGTCTTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCTTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F1652-TCTACTGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTACTGAGGTCGTCGGCAGCGTC</t>
+    <t>F1652-TCTTGACTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGACTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F1653-TTCGTCATGT</t>
+    <t>F1653-ATGCTGTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTGTCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F1654-GTCTGTTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTGTTCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F1655-TTGAAGGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAAGGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F1656-ATGCTACTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTACTGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F1657-CCACTGTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCACTGTGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F1658-CTCGATGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCGATGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F1659-ACGATCAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGATCAAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F1660-TTCATGTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCATGTCAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F1661-ACACTAGAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTAGAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F1662-TTGAGTGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGTGAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F1663-ACAACAACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACAACAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F1664-TCACAAGGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACAAGGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F1665-TTGCACATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCACATCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F1666-ACTTGCTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTGCTAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F1667-CTCAGAGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGAGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F1668-AACTGCAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGCAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F1669-AGCTCGAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCGAACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F1670-AGACTACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTACGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F1671-GGTCGTAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTCGTAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F1672-TACACGAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACGAGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F1673-TGTGTTCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTTCCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F1674-TGAAGCATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGCATCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F1675-TTCCTGTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTGTCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F1676-AACCTGTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTGTCGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F1677-TTCGTCATGT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTTCGTCATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F1654-GTACGTCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACGTCCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F1655-TTCACCTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCACCTCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F1656-GTCACTTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACTTCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F1657-AGTACGACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTACGACTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F1658-AGAACTGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTGAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F1659-GAACCTAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F1660-GAACGAGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACGAGAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F1661-AACAGTGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTGACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F1662-GTCATGCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCATGCAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F1663-GACTACGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTACGATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F1664-TCACGTCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACGTCAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F1665-CGACTAGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGACTAGACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F1666-TTCCAAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAAGCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F1667-GAGTAGAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTAGAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F1668-ATCTCCAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTCCAGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F1669-AGGTCTTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCTTCCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F1670-AACATGTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACATGTGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F1671-GCTGTCACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTGTCACTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F1672-TAGTCGAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCGAGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F1673-GTAGCATGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCATGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F1674-CAACTCTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCTGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F1675-ATGACGTCGT</t>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F1678-GGAGAGTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAGAGTTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F1679-ATGACGTCGT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACATGACGTCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F1676-CAACTTGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTTGTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F1677-AAGCTACCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTACCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F1678-TGTCTCGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTCGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F1679-TACGATCCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGATCCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F1680-CTGAGCATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGCATCATCGTCGGCAGCGTC</t>
+    <t>F1680-ATCTCAGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTCAGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F1681-CAAGGTTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGGTTGGTTCGTCGGCAGCGTC</t>
+    <t>F1681-TCGTACTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTACTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F1682-TGGAGTACGA</t>
+    <t>F1682-AACAAGATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGATGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F1683-TAGACTGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACTGTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F1684-ACAAGTCGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGTCGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F1685-AACTGCAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGCAACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F1686-ACTGACGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGACGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F1687-CTCTTCCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTCCATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F1688-AGTCATGGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCATGGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F1689-AAGAGAAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGAAGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F1690-TCTGAAGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAAGACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F1691-CATGCTTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGCTTCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F1692-CCTCGAAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTCGAAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F1693-GTTGGATGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGGATGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F1694-TGACAACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACAACTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F1695-TGACTGCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACTGCATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F1696-ACTCCTTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCCTTGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F1697-ATCCTGAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTGAGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F1698-CAGATGACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGATGACATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F1699-GTCCAACCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCCAACCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F1700-AACGACAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGACAGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F1701-CGTGTAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTAGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F1702-CATCTGTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCTGTAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F1703-TGTGCTGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGCTGGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F1704-CCTTGACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGACTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F1705-ATGCAACCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCAACCAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F1706-AGCACTTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCACTTGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F1707-TGCAACCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAACCAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F1708-TTGTCAAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCAAGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F1709-GGATCACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATCACTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F1710-ACTACTTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTACTTCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F1711-AGCTACAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTACAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F1712-TCTGACTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGACTGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F1713-ACATCGAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCGAGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F1714-TAGTTGTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTTGTGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F1715-CCTTGTACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGTACATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F1716-AGACAGGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACAGGTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F1717-AAGTTCGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTTCGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F1718-TGGAGTACGA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTGGAGTACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F1683-TTGCTCACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTCACAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F1684-TGACGAAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACGAAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F1685-TCCATCCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCATCCAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F1686-AGGAAGTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAAGTGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F1687-AAGACACAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACACAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F1688-TCACCAACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACCAACGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F1689-ACTGGAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGGAGTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F1690-CTCGTACACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCGTACACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F1691-TGGTCACTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTCACTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F1692-ATCGTCTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTCTGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F1693-GTAGGAACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGAACCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F1694-GAGTGTACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGTACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F1695-GTTGGAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGGAGTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F1696-AGACAGCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACAGCTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F1697-AGAAGCAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCAGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F1698-CTAGTCGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTCGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F1699-GACTTCGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTTCGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F1700-ATCTCACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTCACAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F1701-TCCATCTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCATCTCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F1702-AGGTTCAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTCAAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F1703-CATCTGTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCTGTTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F1704-TTGACACCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGACACCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F1705-CTGTCATCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTCATCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F1706-TACTGTCGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTGTCGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F1707-GGTGAAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGAAGAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F1708-CTGGTGTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGGTGTACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F1709-CTGTGAAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTGAAGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F1710-ACGACTTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGACTTCCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F1711-AGTCATCGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCATCGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F1712-ACCTCTCGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTCTCGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F1713-ACGAGAAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAGAAGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F1714-TAGACAAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACAAGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F1715-GGTTGATGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGATGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F1716-TGGATCGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGATCGTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F1717-GCATCGAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATCGAACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F1718-CACAGCTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACAGCTTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F1719-TGTCATCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCATCATCTCGTCGGCAGCGTC</t>
+    <t>F1719-TGGATGTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGATGTAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F1720-TCACTCGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCGATCTCGTCGGCAGCGTC</t>
+    <t>F1720-TACACGATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACGATCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F1721-CATGTGGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGTGGTCTTCGTCGGCAGCGTC</t>
+    <t>F1721-TGAACTGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACTGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F1722-CTAGGACTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGACTTGTCGTCGGCAGCGTC</t>
+    <t>F1722-CTCTCTGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCTGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F1723-GATCCTGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCCTGACTTCGTCGGCAGCGTC</t>
+    <t>F1723-ACAGATCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGATCCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F1724-AGTAGGAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGGAGTATCGTCGGCAGCGTC</t>
+    <t>F1724-GATCTTCTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCTTCTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F1725-GACTACACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTACACACTCGTCGGCAGCGTC</t>
+    <t>F1725-GTGCAAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGCAAGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F1726-TCAACGTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACGTCCATCGTCGGCAGCGTC</t>
+    <t>F1726-TCTGTGAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTGAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F1727-ACTTGCACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTGCACTATCGTCGGCAGCGTC</t>
+    <t>F1727-AACAGTGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTGTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F1728-ACAGCAAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGCAAGTATCGTCGGCAGCGTC</t>
+    <t>F1728-CTACCTTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACCTTGGATCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
